--- a/va_facility_data_2025-02-20/Kenosha VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kenosha%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kenosha VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kenosha%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1326ba4d57c5404995d588ef24c2a3f7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra25e241af17d4f99b516cf6b5ac25b9a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R47a1f6d61e1a42189beff1765440eef5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9c623c82854646c386e4f690ed602888"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rda655f7edb1f44ea8399cd814a419d09"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9e15aa03c7a24faa80af7fd106a33fa0"/>
   </x:sheets>
 </x:workbook>
 </file>
